--- a/Data Dictionary Ver 2.xlsx
+++ b/Data Dictionary Ver 2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tewaka-my.sharepoint.com/personal/lpc0045_arastudent_ac_nz/Documents/Ara-2020/Data Design/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="185" documentId="8_{A5BD6B3A-BBCD-4FF0-92E0-0BC0F3AB7959}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{688FE21E-0CE3-4668-A107-E69F548EA012}"/>
+  <xr:revisionPtr revIDLastSave="198" documentId="8_{A5BD6B3A-BBCD-4FF0-92E0-0BC0F3AB7959}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{A94FF9B1-3040-4FAB-A911-8C272493E6C7}"/>
   <bookViews>
-    <workbookView xWindow="23077" yWindow="465" windowWidth="11446" windowHeight="20213" xr2:uid="{5C6059EF-3B42-45C3-A510-66A5E5930BA1}"/>
+    <workbookView xWindow="21458" yWindow="143" windowWidth="16260" windowHeight="20212" xr2:uid="{5C6059EF-3B42-45C3-A510-66A5E5930BA1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="100">
   <si>
     <t>DATA DICTIONARY</t>
   </si>
@@ -183,9 +183,6 @@
     <t>note</t>
   </si>
   <si>
-    <t>bit</t>
-  </si>
-  <si>
     <t>int</t>
   </si>
   <si>
@@ -255,9 +252,6 @@
     <t>Branch</t>
   </si>
   <si>
-    <t>History</t>
-  </si>
-  <si>
     <t>streetNum</t>
   </si>
   <si>
@@ -334,6 +328,9 @@
   </si>
   <si>
     <t>EmployeeHistory</t>
+  </si>
+  <si>
+    <t>PK,FK</t>
   </si>
 </sst>
 </file>
@@ -659,6 +656,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -668,9 +668,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -985,10 +982,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03B6607B-D32C-4BE5-847E-77F65ABB5570}">
-  <dimension ref="A1:H89"/>
+  <dimension ref="A1:H88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1004,65 +1001,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="28.5" x14ac:dyDescent="0.85">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
     </row>
     <row r="2" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="3" spans="1:8" ht="45.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="D3" s="37" t="s">
         <v>4</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="34" t="s">
+      <c r="F3" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="34" t="s">
+      <c r="G3" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="34" t="s">
+      <c r="H3" s="37" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="35"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
+      <c r="A4" s="38"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
       <c r="E4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>58</v>
-      </c>
       <c r="C5" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
@@ -1075,10 +1072,10 @@
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" s="24"/>
       <c r="B6" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5" t="s">
@@ -1093,7 +1090,7 @@
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="24"/>
       <c r="B7" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>10</v>
@@ -1109,7 +1106,7 @@
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="15"/>
       <c r="B8" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>17</v>
@@ -1118,26 +1115,26 @@
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
-      <c r="H8" s="36"/>
+      <c r="H8" s="33"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" s="15"/>
       <c r="B9" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
-      <c r="H9" s="36"/>
+      <c r="H9" s="33"/>
     </row>
     <row r="10" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="15"/>
       <c r="B10" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>10</v>
@@ -1148,17 +1145,17 @@
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
-      <c r="H10" s="36"/>
+      <c r="H10" s="33"/>
     </row>
     <row r="11" spans="1:8" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A11" s="26" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11" t="s">
@@ -1171,17 +1168,17 @@
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" s="24"/>
       <c r="B12" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
         <v>15</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="29"/>
@@ -1189,7 +1186,7 @@
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" s="24"/>
       <c r="B13" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>10</v>
@@ -1205,7 +1202,7 @@
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" s="24"/>
       <c r="B14" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>10</v>
@@ -1221,7 +1218,7 @@
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="24"/>
       <c r="B15" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>10</v>
@@ -1251,10 +1248,10 @@
     <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17" s="24"/>
       <c r="B17" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="5"/>
@@ -1265,7 +1262,7 @@
     <row r="18" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A18" s="24"/>
       <c r="B18" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>10</v>
@@ -1281,7 +1278,7 @@
     <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A19" s="24"/>
       <c r="B19" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>10</v>
@@ -1297,7 +1294,7 @@
     <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A20" s="24"/>
       <c r="B20" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>10</v>
@@ -1313,7 +1310,7 @@
     <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21" s="24"/>
       <c r="B21" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>10</v>
@@ -1345,7 +1342,7 @@
     <row r="23" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A23" s="25"/>
       <c r="B23" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C23" s="13" t="s">
         <v>10</v>
@@ -1360,13 +1357,13 @@
     </row>
     <row r="24" spans="1:8" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A24" s="26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D24" s="11"/>
       <c r="E24" s="12" t="s">
@@ -1379,17 +1376,17 @@
     <row r="25" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A25" s="24"/>
       <c r="B25" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D25" s="7"/>
       <c r="E25" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="G25" s="5"/>
       <c r="H25" s="29"/>
@@ -1397,7 +1394,7 @@
     <row r="26" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A26" s="24"/>
       <c r="B26" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>10</v>
@@ -1416,7 +1413,7 @@
         <v>18</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
@@ -1426,13 +1423,13 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A28" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8" t="s">
@@ -1442,87 +1439,83 @@
       <c r="G28" s="4"/>
       <c r="H28" s="28"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A29" s="24"/>
-      <c r="B29" s="7" t="s">
+    <row r="29" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A29" s="27"/>
+      <c r="B29" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="9">
+        <v>20</v>
+      </c>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="32"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A30" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="C29" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D29" s="7"/>
-      <c r="E29" s="5" t="s">
+      <c r="B30" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="28"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A31" s="24"/>
+      <c r="B31" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F29" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="G29" s="5"/>
-      <c r="H29" s="29"/>
-    </row>
-    <row r="30" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A30" s="27"/>
-      <c r="B30" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D30" s="9">
-        <v>20</v>
-      </c>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="32"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A31" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="28"/>
+      <c r="F31" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G31" s="5"/>
+      <c r="H31" s="29"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A32" s="24"/>
       <c r="B32" s="7" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>71</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D32" s="7">
+        <v>50</v>
+      </c>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
       <c r="G32" s="5"/>
       <c r="H32" s="29"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A33" s="24"/>
       <c r="B33" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D33" s="7">
-        <v>50</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="D33" s="7"/>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
@@ -1531,21 +1524,23 @@
     <row r="34" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A34" s="24"/>
       <c r="B34" s="7" t="s">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D34" s="7"/>
+        <v>17</v>
+      </c>
+      <c r="D34" s="5"/>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
+      <c r="G34" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="H34" s="29"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A35" s="24"/>
       <c r="B35" s="7" t="s">
-        <v>22</v>
+        <v>81</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>17</v>
@@ -1561,96 +1556,96 @@
     <row r="36" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A36" s="24"/>
       <c r="B36" s="7" t="s">
-        <v>83</v>
+        <v>23</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D36" s="5"/>
+        <v>10</v>
+      </c>
+      <c r="D36" s="5">
+        <v>10</v>
+      </c>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
-      <c r="G36" s="5" t="s">
-        <v>29</v>
-      </c>
+      <c r="G36" s="5"/>
       <c r="H36" s="29"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A37" s="24"/>
       <c r="B37" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D37" s="5">
-        <v>10</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="D37" s="5"/>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
       <c r="H37" s="29"/>
     </row>
-    <row r="38" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A38" s="24"/>
-      <c r="B38" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="29"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A39" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D39" s="4"/>
-      <c r="E39" s="8" t="s">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A38" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D38" s="4"/>
+      <c r="E38" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="28"/>
-    </row>
-    <row r="40" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A40" s="27"/>
-      <c r="B40" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D40" s="6"/>
-      <c r="E40" s="9" t="s">
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="28"/>
+    </row>
+    <row r="39" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A39" s="27"/>
+      <c r="B39" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D39" s="6"/>
+      <c r="E39" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="32"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="32"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A40" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D40" s="5"/>
+      <c r="E40" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="29"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A41" s="24" t="s">
-        <v>71</v>
-      </c>
+      <c r="A41" s="24"/>
       <c r="B41" s="7" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D41" s="5"/>
       <c r="E41" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
@@ -1659,10 +1654,10 @@
     <row r="42" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A42" s="24"/>
       <c r="B42" s="7" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D42" s="5"/>
       <c r="E42" s="7" t="s">
@@ -1675,10 +1670,10 @@
     <row r="43" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A43" s="24"/>
       <c r="B43" s="7" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D43" s="5"/>
       <c r="E43" s="7" t="s">
@@ -1691,10 +1686,10 @@
     <row r="44" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A44" s="24"/>
       <c r="B44" s="7" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D44" s="5"/>
       <c r="E44" s="7" t="s">
@@ -1707,10 +1702,10 @@
     <row r="45" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A45" s="24"/>
       <c r="B45" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D45" s="5"/>
       <c r="E45" s="7" t="s">
@@ -1723,15 +1718,13 @@
     <row r="46" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A46" s="24"/>
       <c r="B46" s="7" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="D46" s="5"/>
-      <c r="E46" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="E46" s="7"/>
       <c r="F46" s="5"/>
       <c r="G46" s="5"/>
       <c r="H46" s="29"/>
@@ -1739,94 +1732,94 @@
     <row r="47" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A47" s="24"/>
       <c r="B47" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D47" s="5"/>
+        <v>10</v>
+      </c>
+      <c r="D47" s="5">
+        <v>30</v>
+      </c>
       <c r="E47" s="7"/>
       <c r="F47" s="5"/>
       <c r="G47" s="5"/>
       <c r="H47" s="29"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A48" s="24"/>
       <c r="B48" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D48" s="5">
-        <v>30</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="D48" s="5"/>
       <c r="E48" s="7"/>
       <c r="F48" s="5"/>
       <c r="G48" s="5"/>
       <c r="H48" s="29"/>
     </row>
-    <row r="49" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A49" s="24"/>
-      <c r="B49" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D49" s="5"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
-      <c r="H49" s="29"/>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A49" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="28"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A50" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
-      <c r="H50" s="28"/>
+      <c r="A50" s="24"/>
+      <c r="B50" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G50" s="5"/>
+      <c r="H50" s="29"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A51" s="24"/>
       <c r="B51" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F51" s="7" t="s">
-        <v>91</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D51" s="5">
+        <v>30</v>
+      </c>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
       <c r="G51" s="5"/>
       <c r="H51" s="29"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A52" s="24"/>
       <c r="B52" s="7" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D52" s="5">
-        <v>30</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="D52" s="5"/>
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
       <c r="G52" s="5"/>
@@ -1835,12 +1828,14 @@
     <row r="53" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A53" s="24"/>
       <c r="B53" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D53" s="5"/>
+        <v>10</v>
+      </c>
+      <c r="D53" s="5">
+        <v>50</v>
+      </c>
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
@@ -1849,13 +1844,13 @@
     <row r="54" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A54" s="24"/>
       <c r="B54" s="7" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="C54" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D54" s="5">
-        <v>50</v>
+      <c r="D54" s="7">
+        <v>20</v>
       </c>
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
@@ -1881,114 +1876,106 @@
     <row r="56" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A56" s="24"/>
       <c r="B56" s="7" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D56" s="7">
-        <v>20</v>
+      <c r="D56" s="5">
+        <v>15</v>
       </c>
       <c r="E56" s="5"/>
       <c r="F56" s="5"/>
       <c r="G56" s="5"/>
       <c r="H56" s="29"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A57" s="24"/>
+    <row r="57" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A57" s="34"/>
       <c r="B57" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D57" s="5">
-        <v>15</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D57" s="5"/>
       <c r="E57" s="5"/>
       <c r="F57" s="5"/>
       <c r="G57" s="5"/>
-      <c r="H57" s="29"/>
-    </row>
-    <row r="58" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A58" s="37"/>
-      <c r="B58" s="7" t="s">
+      <c r="H57" s="35"/>
+    </row>
+    <row r="58" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A58" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="28"/>
+    </row>
+    <row r="59" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A59" s="24"/>
+      <c r="B59" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="C58" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D58" s="5"/>
-      <c r="E58" s="5"/>
-      <c r="F58" s="5"/>
-      <c r="G58" s="5"/>
-      <c r="H58" s="38"/>
-    </row>
-    <row r="59" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A59" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="B59" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="C59" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D59" s="4"/>
-      <c r="E59" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F59" s="4"/>
-      <c r="G59" s="4"/>
-      <c r="H59" s="28"/>
+      <c r="C59" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D59" s="7"/>
+      <c r="E59" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H59" s="29"/>
     </row>
     <row r="60" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A60" s="24"/>
       <c r="B60" s="7" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D60" s="7"/>
       <c r="E60" s="5" t="s">
         <v>15</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="H60" s="29"/>
     </row>
     <row r="61" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A61" s="24"/>
       <c r="B61" s="7" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D61" s="7"/>
-      <c r="E61" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F61" s="7" t="s">
-        <v>21</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="F61" s="7"/>
       <c r="H61" s="29"/>
     </row>
     <row r="62" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A62" s="24"/>
       <c r="B62" s="7" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E62" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F62" s="7" t="s">
-        <v>74</v>
+        <v>10</v>
+      </c>
+      <c r="D62" s="7">
+        <v>20</v>
       </c>
       <c r="H62" s="29"/>
     </row>
@@ -2005,28 +1992,31 @@
       </c>
       <c r="H63" s="29"/>
     </row>
-    <row r="64" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A64" s="24"/>
       <c r="B64" s="7" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D64" s="7">
-        <v>20</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="5"/>
       <c r="H64" s="29"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A65" s="24"/>
       <c r="B65" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D65" s="5"/>
+        <v>10</v>
+      </c>
+      <c r="D65" s="5">
+        <v>50</v>
+      </c>
       <c r="E65" s="5"/>
       <c r="F65" s="5"/>
       <c r="G65" s="5"/>
@@ -2035,13 +2025,13 @@
     <row r="66" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A66" s="24"/>
       <c r="B66" s="7" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="C66" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D66" s="5">
-        <v>50</v>
+      <c r="D66" s="7">
+        <v>20</v>
       </c>
       <c r="E66" s="5"/>
       <c r="F66" s="5"/>
@@ -2064,78 +2054,78 @@
       <c r="G67" s="5"/>
       <c r="H67" s="29"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A68" s="24"/>
       <c r="B68" s="7" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D68" s="7">
-        <v>20</v>
-      </c>
-      <c r="E68" s="5"/>
-      <c r="F68" s="5"/>
-      <c r="G68" s="5"/>
+        <v>17</v>
+      </c>
+      <c r="G68" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="H68" s="29"/>
     </row>
     <row r="69" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A69" s="24"/>
       <c r="B69" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G69" s="5" t="s">
-        <v>28</v>
+        <v>10</v>
+      </c>
+      <c r="D69" s="7">
+        <v>15</v>
       </c>
       <c r="H69" s="29"/>
     </row>
-    <row r="70" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A70" s="24"/>
-      <c r="B70" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C70" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D70" s="7">
-        <v>15</v>
-      </c>
-      <c r="H70" s="29"/>
-    </row>
-    <row r="71" spans="1:8" s="5" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A71" s="27"/>
-      <c r="B71" s="9" t="s">
+    <row r="70" spans="1:8" s="5" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A70" s="27"/>
+      <c r="B70" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C71" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D71" s="9">
-        <v>50</v>
-      </c>
-      <c r="E71" s="6"/>
-      <c r="F71" s="6"/>
-      <c r="G71" s="6"/>
-      <c r="H71" s="32"/>
+      <c r="C70" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D70" s="9">
+        <v>50</v>
+      </c>
+      <c r="E70" s="6"/>
+      <c r="F70" s="6"/>
+      <c r="G70" s="6"/>
+      <c r="H70" s="32"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A71" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F71" s="5"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="29"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A72" s="24" t="s">
-        <v>27</v>
-      </c>
+      <c r="A72" s="24"/>
       <c r="B72" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D72" s="5"/>
-      <c r="E72" s="5" t="s">
-        <v>11</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D72" s="7">
+        <v>20</v>
+      </c>
+      <c r="E72" s="5"/>
       <c r="F72" s="5"/>
       <c r="G72" s="5"/>
       <c r="H72" s="29"/>
@@ -2143,112 +2133,109 @@
     <row r="73" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A73" s="24"/>
       <c r="B73" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D73" s="7">
-        <v>20</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="D73" s="5"/>
       <c r="E73" s="5"/>
       <c r="F73" s="5"/>
-      <c r="G73" s="5"/>
+      <c r="G73" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="H73" s="29"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A74" s="24"/>
-      <c r="B74" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="C74" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D74" s="5"/>
-      <c r="E74" s="5"/>
-      <c r="F74" s="5"/>
-      <c r="G74" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H74" s="29"/>
-    </row>
-    <row r="75" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A75" s="27"/>
-      <c r="B75" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="C75" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D75" s="6">
+    <row r="74" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A74" s="27"/>
+      <c r="B74" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D74" s="6">
         <v>100</v>
       </c>
-      <c r="E75" s="6"/>
-      <c r="F75" s="6"/>
-      <c r="G75" s="6"/>
-      <c r="H75" s="32"/>
+      <c r="E74" s="6"/>
+      <c r="F74" s="6"/>
+      <c r="G74" s="6"/>
+      <c r="H74" s="32"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A75" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="F75" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G75" s="4"/>
+      <c r="H75" s="28"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A76" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="B76" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="C76" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D76" s="8"/>
-      <c r="E76" s="8" t="s">
+      <c r="A76" s="24"/>
+      <c r="B76" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D76" s="7"/>
+      <c r="E76" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F76" s="4"/>
-      <c r="G76" s="4"/>
-      <c r="H76" s="28"/>
+      <c r="F76" s="5"/>
+      <c r="G76" s="5"/>
+      <c r="H76" s="29"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A77" s="24"/>
       <c r="B77" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D77" s="7">
-        <v>10</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="D77" s="7"/>
       <c r="E77" s="7"/>
-      <c r="F77" s="5"/>
       <c r="G77" s="5"/>
       <c r="H77" s="29"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A78" s="24"/>
       <c r="B78" s="7" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="D78" s="7"/>
-      <c r="E78" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F78" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="G78" s="5"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="5"/>
+      <c r="G78" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="H78" s="29"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A79" s="24"/>
       <c r="B79" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C79" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D79" s="7"/>
+      <c r="D79" s="5"/>
       <c r="E79" s="5"/>
       <c r="F79" s="5"/>
       <c r="G79" s="5" t="s">
@@ -2256,135 +2243,119 @@
       </c>
       <c r="H79" s="29"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A80" s="24"/>
-      <c r="B80" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="C80" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D80" s="5"/>
-      <c r="E80" s="5"/>
-      <c r="F80" s="5"/>
-      <c r="G80" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H80" s="29"/>
-    </row>
-    <row r="81" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A81" s="27"/>
-      <c r="B81" s="9" t="s">
+    <row r="80" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A80" s="27"/>
+      <c r="B80" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C81" s="6" t="s">
+      <c r="C80" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D81" s="6">
+      <c r="D80" s="6">
         <v>100</v>
       </c>
-      <c r="E81" s="6"/>
-      <c r="F81" s="6"/>
-      <c r="G81" s="6"/>
-      <c r="H81" s="2"/>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A83" s="5"/>
+      <c r="E80" s="6"/>
+      <c r="F80" s="6"/>
+      <c r="G80" s="6"/>
+      <c r="H80" s="2"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A82" s="5"/>
+      <c r="B82" s="5"/>
+      <c r="C82" s="5"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="5"/>
+      <c r="F82" s="5"/>
+    </row>
+    <row r="83" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A83" s="15" t="s">
+        <v>30</v>
+      </c>
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
       <c r="D83" s="5"/>
       <c r="E83" s="5"/>
       <c r="F83" s="5"/>
     </row>
-    <row r="84" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A84" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B84" s="5"/>
-      <c r="C84" s="5"/>
-      <c r="D84" s="5"/>
-      <c r="E84" s="5"/>
-      <c r="F84" s="5"/>
-    </row>
-    <row r="85" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A85" s="20" t="s">
+    <row r="84" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A84" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B85" s="21" t="s">
+      <c r="B84" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="C85" s="21" t="s">
+      <c r="C84" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="D85" s="21" t="s">
+      <c r="D84" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="E85" s="22" t="s">
+      <c r="E84" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="F85" s="14"/>
-    </row>
-    <row r="86" spans="1:8" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="F84" s="14"/>
+    </row>
+    <row r="85" spans="1:6" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A85" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E85" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" s="5"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A86" s="16" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E86" s="17" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F86" s="5"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A87" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="B87" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C87" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D87" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E87" s="17" t="s">
-        <v>46</v>
+    <row r="87" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A87" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B87" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C87" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D87" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E87" s="19" t="s">
+        <v>48</v>
       </c>
       <c r="F87" s="5"/>
     </row>
-    <row r="88" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A88" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="B88" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C88" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D88" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E88" s="19" t="s">
-        <v>48</v>
-      </c>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A88" s="5"/>
+      <c r="B88" s="5"/>
+      <c r="C88" s="5"/>
+      <c r="D88" s="5"/>
+      <c r="E88" s="5"/>
       <c r="F88" s="5"/>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A89" s="5"/>
-      <c r="B89" s="5"/>
-      <c r="C89" s="5"/>
-      <c r="D89" s="5"/>
-      <c r="E89" s="5"/>
-      <c r="F89" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2637,16 +2608,16 @@
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1039DAA2-FF55-4346-888C-D3925BD0511D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="0fe31927-0c1b-47a5-957f-e9c5b802eed2"/>
-    <ds:schemaRef ds:uri="9ed09d8f-c6f2-4852-93b8-5eea4431975c"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="9ed09d8f-c6f2-4852-93b8-5eea4431975c"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="0fe31927-0c1b-47a5-957f-e9c5b802eed2"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Data Dictionary Ver 2.xlsx
+++ b/Data Dictionary Ver 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tewaka-my.sharepoint.com/personal/lpc0045_arastudent_ac_nz/Documents/Ara-2020/Data Design/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="198" documentId="8_{A5BD6B3A-BBCD-4FF0-92E0-0BC0F3AB7959}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{A94FF9B1-3040-4FAB-A911-8C272493E6C7}"/>
+  <xr:revisionPtr revIDLastSave="205" documentId="8_{A5BD6B3A-BBCD-4FF0-92E0-0BC0F3AB7959}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{52C5B603-F627-4ECC-B0D1-92E30484AE1D}"/>
   <bookViews>
     <workbookView xWindow="21458" yWindow="143" windowWidth="16260" windowHeight="20212" xr2:uid="{5C6059EF-3B42-45C3-A510-66A5E5930BA1}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="100">
   <si>
     <t>DATA DICTIONARY</t>
   </si>
@@ -297,9 +297,6 @@
     <t>branchName</t>
   </si>
   <si>
-    <t>staffCount</t>
-  </si>
-  <si>
     <t>Employee</t>
   </si>
   <si>
@@ -331,6 +328,9 @@
   </si>
   <si>
     <t>PK,FK</t>
+  </si>
+  <si>
+    <t>employeeCount</t>
   </si>
 </sst>
 </file>
@@ -984,8 +984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03B6607B-D32C-4BE5-847E-77F65ABB5570}">
   <dimension ref="A1:H88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1114,7 +1114,9 @@
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
+      <c r="G8" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="H8" s="33"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
@@ -1128,7 +1130,9 @@
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
+      <c r="G9" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="H9" s="33"/>
     </row>
     <row r="10" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -1242,7 +1246,9 @@
       <c r="D16" s="7"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
+      <c r="G16" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="H16" s="29"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.45">
@@ -1256,7 +1262,6 @@
       <c r="D17" s="7"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
       <c r="H17" s="29"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.45">
@@ -1580,7 +1585,9 @@
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
+      <c r="G37" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="H37" s="29"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.45">
@@ -1756,7 +1763,9 @@
       <c r="D48" s="5"/>
       <c r="E48" s="7"/>
       <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
+      <c r="G48" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="H48" s="29"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.45">
@@ -1790,7 +1799,7 @@
         <v>15</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G50" s="5"/>
       <c r="H50" s="29"/>
@@ -1892,7 +1901,7 @@
     <row r="57" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A57" s="34"/>
       <c r="B57" s="7" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="C57" s="5" t="s">
         <v>50</v>
@@ -1905,7 +1914,7 @@
     </row>
     <row r="58" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A58" s="23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B58" s="8" t="s">
         <v>83</v>
@@ -1924,7 +1933,7 @@
     <row r="59" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A59" s="24"/>
       <c r="B59" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C59" s="7" t="s">
         <v>50</v>
@@ -1958,7 +1967,7 @@
     <row r="61" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A61" s="24"/>
       <c r="B61" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C61" s="7" t="s">
         <v>50</v>
@@ -2101,7 +2110,7 @@
         <v>27</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C71" s="5" t="s">
         <v>50</v>
@@ -2117,7 +2126,7 @@
     <row r="72" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A72" s="24"/>
       <c r="B72" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C72" s="7" t="s">
         <v>10</v>
@@ -2133,7 +2142,7 @@
     <row r="73" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A73" s="24"/>
       <c r="B73" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C73" s="7" t="s">
         <v>51</v>
@@ -2149,7 +2158,7 @@
     <row r="74" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A74" s="27"/>
       <c r="B74" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C74" s="6" t="s">
         <v>10</v>
@@ -2164,7 +2173,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A75" s="23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B75" s="8" t="s">
         <v>83</v>
@@ -2174,10 +2183,10 @@
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G75" s="4"/>
       <c r="H75" s="28"/>
@@ -2185,7 +2194,7 @@
     <row r="76" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A76" s="24"/>
       <c r="B76" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C76" s="7" t="s">
         <v>50</v>
@@ -2201,7 +2210,7 @@
     <row r="77" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A77" s="24"/>
       <c r="B77" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C77" s="7" t="s">
         <v>50</v>
@@ -2214,7 +2223,7 @@
     <row r="78" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A78" s="24"/>
       <c r="B78" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C78" s="7" t="s">
         <v>17</v>
@@ -2230,7 +2239,7 @@
     <row r="79" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A79" s="24"/>
       <c r="B79" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C79" s="7" t="s">
         <v>17</v>
@@ -2374,21 +2383,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D2F789DAB2D65F42A25DA42593ADDD1F" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d85fb1042ec27e7a362bab4d2f8a4a59">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="0fe31927-0c1b-47a5-957f-e9c5b802eed2" xmlns:ns4="9ed09d8f-c6f2-4852-93b8-5eea4431975c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2025cf59eaad6be67504732946634293" ns3:_="" ns4:_="">
     <xsd:import namespace="0fe31927-0c1b-47a5-957f-e9c5b802eed2"/>
@@ -2605,32 +2599,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1039DAA2-FF55-4346-888C-D3925BD0511D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="9ed09d8f-c6f2-4852-93b8-5eea4431975c"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="0fe31927-0c1b-47a5-957f-e9c5b802eed2"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E17A528-8E98-4587-B504-D4A8CF325188}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{206C081A-AE65-4960-B449-F21DA5DDFF91}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2647,4 +2631,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E17A528-8E98-4587-B504-D4A8CF325188}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1039DAA2-FF55-4346-888C-D3925BD0511D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="0fe31927-0c1b-47a5-957f-e9c5b802eed2"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="9ed09d8f-c6f2-4852-93b8-5eea4431975c"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Data Dictionary Ver 2.xlsx
+++ b/Data Dictionary Ver 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tewaka-my.sharepoint.com/personal/lpc0045_arastudent_ac_nz/Documents/Ara-2020/Data Design/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="205" documentId="8_{A5BD6B3A-BBCD-4FF0-92E0-0BC0F3AB7959}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{52C5B603-F627-4ECC-B0D1-92E30484AE1D}"/>
+  <xr:revisionPtr revIDLastSave="206" documentId="8_{A5BD6B3A-BBCD-4FF0-92E0-0BC0F3AB7959}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{CBCC22AD-EF81-4251-84D3-2919E73E8333}"/>
   <bookViews>
     <workbookView xWindow="21458" yWindow="143" windowWidth="16260" windowHeight="20212" xr2:uid="{5C6059EF-3B42-45C3-A510-66A5E5930BA1}"/>
   </bookViews>
@@ -231,9 +231,6 @@
     <t>customerType</t>
   </si>
   <si>
-    <t>creaditStatus</t>
-  </si>
-  <si>
     <t>branchID</t>
   </si>
   <si>
@@ -331,6 +328,9 @@
   </si>
   <si>
     <t>employeeCount</t>
+  </si>
+  <si>
+    <t>creditStatus</t>
   </si>
 </sst>
 </file>
@@ -984,8 +984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03B6607B-D32C-4BE5-847E-77F65ABB5570}">
   <dimension ref="A1:H88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1254,7 +1254,7 @@
     <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17" s="24"/>
       <c r="B17" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>50</v>
@@ -1267,7 +1267,7 @@
     <row r="18" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A18" s="24"/>
       <c r="B18" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>10</v>
@@ -1347,7 +1347,7 @@
     <row r="23" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A23" s="25"/>
       <c r="B23" s="13" t="s">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="C23" s="13" t="s">
         <v>10</v>
@@ -1365,7 +1365,7 @@
         <v>53</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C24" s="11" t="s">
         <v>50</v>
@@ -1381,17 +1381,17 @@
     <row r="25" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A25" s="24"/>
       <c r="B25" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>50</v>
       </c>
       <c r="D25" s="7"/>
       <c r="E25" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="G25" s="5"/>
       <c r="H25" s="29"/>
@@ -1428,10 +1428,10 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A28" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>50</v>
@@ -1447,7 +1447,7 @@
     <row r="29" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A29" s="27"/>
       <c r="B29" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C29" s="9" t="s">
         <v>10</v>
@@ -1462,10 +1462,10 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A30" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>50</v>
@@ -1481,7 +1481,7 @@
     <row r="31" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A31" s="24"/>
       <c r="B31" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>50</v>
@@ -1491,7 +1491,7 @@
         <v>15</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G31" s="5"/>
       <c r="H31" s="29"/>
@@ -1499,7 +1499,7 @@
     <row r="32" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A32" s="24"/>
       <c r="B32" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>10</v>
@@ -1515,7 +1515,7 @@
     <row r="33" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A33" s="24"/>
       <c r="B33" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>14</v>
@@ -1545,7 +1545,7 @@
     <row r="35" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A35" s="24"/>
       <c r="B35" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>17</v>
@@ -1592,10 +1592,10 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A38" s="23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C38" s="8" t="s">
         <v>50</v>
@@ -1611,7 +1611,7 @@
     <row r="39" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A39" s="27"/>
       <c r="B39" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C39" s="9" t="s">
         <v>50</v>
@@ -1626,10 +1626,10 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A40" s="24" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>50</v>
@@ -1661,7 +1661,7 @@
     <row r="42" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A42" s="24"/>
       <c r="B42" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>50</v>
@@ -1677,7 +1677,7 @@
     <row r="43" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A43" s="24"/>
       <c r="B43" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>50</v>
@@ -1693,7 +1693,7 @@
     <row r="44" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A44" s="24"/>
       <c r="B44" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>50</v>
@@ -1709,7 +1709,7 @@
     <row r="45" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A45" s="24"/>
       <c r="B45" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>50</v>
@@ -1725,7 +1725,7 @@
     <row r="46" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A46" s="24"/>
       <c r="B46" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C46" s="7" t="s">
         <v>17</v>
@@ -1739,7 +1739,7 @@
     <row r="47" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A47" s="24"/>
       <c r="B47" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C47" s="7" t="s">
         <v>10</v>
@@ -1755,7 +1755,7 @@
     <row r="48" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A48" s="24"/>
       <c r="B48" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C48" s="7" t="s">
         <v>17</v>
@@ -1770,10 +1770,10 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A49" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C49" s="8" t="s">
         <v>50</v>
@@ -1789,7 +1789,7 @@
     <row r="50" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A50" s="24"/>
       <c r="B50" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C50" s="7" t="s">
         <v>50</v>
@@ -1799,7 +1799,7 @@
         <v>15</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G50" s="5"/>
       <c r="H50" s="29"/>
@@ -1807,7 +1807,7 @@
     <row r="51" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A51" s="24"/>
       <c r="B51" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C51" s="7" t="s">
         <v>10</v>
@@ -1823,7 +1823,7 @@
     <row r="52" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A52" s="24"/>
       <c r="B52" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C52" s="7" t="s">
         <v>50</v>
@@ -1837,7 +1837,7 @@
     <row r="53" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A53" s="24"/>
       <c r="B53" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C53" s="7" t="s">
         <v>10</v>
@@ -1901,7 +1901,7 @@
     <row r="57" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A57" s="34"/>
       <c r="B57" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C57" s="5" t="s">
         <v>50</v>
@@ -1914,10 +1914,10 @@
     </row>
     <row r="58" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A58" s="23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C58" s="8" t="s">
         <v>50</v>
@@ -1933,7 +1933,7 @@
     <row r="59" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A59" s="24"/>
       <c r="B59" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C59" s="7" t="s">
         <v>50</v>
@@ -1950,7 +1950,7 @@
     <row r="60" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A60" s="24"/>
       <c r="B60" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C60" s="7" t="s">
         <v>50</v>
@@ -1967,7 +1967,7 @@
     <row r="61" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A61" s="24"/>
       <c r="B61" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C61" s="7" t="s">
         <v>50</v>
@@ -2004,7 +2004,7 @@
     <row r="64" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A64" s="24"/>
       <c r="B64" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C64" s="7" t="s">
         <v>50</v>
@@ -2018,7 +2018,7 @@
     <row r="65" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A65" s="24"/>
       <c r="B65" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C65" s="7" t="s">
         <v>10</v>
@@ -2110,7 +2110,7 @@
         <v>27</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C71" s="5" t="s">
         <v>50</v>
@@ -2126,7 +2126,7 @@
     <row r="72" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A72" s="24"/>
       <c r="B72" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C72" s="7" t="s">
         <v>10</v>
@@ -2142,7 +2142,7 @@
     <row r="73" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A73" s="24"/>
       <c r="B73" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C73" s="7" t="s">
         <v>51</v>
@@ -2158,7 +2158,7 @@
     <row r="74" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A74" s="27"/>
       <c r="B74" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C74" s="6" t="s">
         <v>10</v>
@@ -2173,20 +2173,20 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A75" s="23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C75" s="8" t="s">
         <v>50</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G75" s="4"/>
       <c r="H75" s="28"/>
@@ -2194,7 +2194,7 @@
     <row r="76" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A76" s="24"/>
       <c r="B76" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C76" s="7" t="s">
         <v>50</v>
@@ -2210,7 +2210,7 @@
     <row r="77" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A77" s="24"/>
       <c r="B77" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C77" s="7" t="s">
         <v>50</v>
@@ -2223,7 +2223,7 @@
     <row r="78" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A78" s="24"/>
       <c r="B78" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C78" s="7" t="s">
         <v>17</v>
@@ -2239,7 +2239,7 @@
     <row r="79" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A79" s="24"/>
       <c r="B79" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C79" s="7" t="s">
         <v>17</v>
@@ -2383,6 +2383,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D2F789DAB2D65F42A25DA42593ADDD1F" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d85fb1042ec27e7a362bab4d2f8a4a59">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="0fe31927-0c1b-47a5-957f-e9c5b802eed2" xmlns:ns4="9ed09d8f-c6f2-4852-93b8-5eea4431975c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2025cf59eaad6be67504732946634293" ns3:_="" ns4:_="">
     <xsd:import namespace="0fe31927-0c1b-47a5-957f-e9c5b802eed2"/>
@@ -2599,22 +2614,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1039DAA2-FF55-4346-888C-D3925BD0511D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="0fe31927-0c1b-47a5-957f-e9c5b802eed2"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="9ed09d8f-c6f2-4852-93b8-5eea4431975c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E17A528-8E98-4587-B504-D4A8CF325188}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{206C081A-AE65-4960-B449-F21DA5DDFF91}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2631,29 +2656,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E17A528-8E98-4587-B504-D4A8CF325188}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1039DAA2-FF55-4346-888C-D3925BD0511D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="0fe31927-0c1b-47a5-957f-e9c5b802eed2"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="9ed09d8f-c6f2-4852-93b8-5eea4431975c"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>